--- a/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_lexical_diversity.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_lexical_diversity.xlsx
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.4638069705093834</v>
+        <v>0.4635416666666667</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.3251533742331288</v>
+        <v>0.3281622911694511</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.4411764705882353</v>
+        <v>0.4541284403669725</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.2560669456066946</v>
+        <v>0.2600979192166463</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.7045454545454546</v>
+        <v>0.708029197080292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5178571428571429</v>
+        <v>0.5249266862170088</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -591,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5044642857142857</v>
+        <v>0.5043859649122807</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -599,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4866008462623413</v>
+        <v>0.489010989010989</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.673202614379085</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4851138353765324</v>
+        <v>0.4796610169491525</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -623,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3925339366515837</v>
+        <v>0.3966666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.5566666666666666</v>
+        <v>0.5598705501618123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -660,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.3815789473684211</v>
+        <v>0.3898840885142255</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.4966887417218543</v>
+        <v>0.5032051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -676,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.6869565217391305</v>
+        <v>0.6779661016949152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.5981941309255079</v>
+        <v>0.5841995841995842</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.531055900621118</v>
+        <v>0.533724340175953</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.7076923076923077</v>
+        <v>0.7092198581560284</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -708,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.5597826086956522</v>
+        <v>0.5654450261780105</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0.5559701492537313</v>
+        <v>0.5535714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>0.4899497487437186</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -761,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>0.4567307692307692</v>
+        <v>0.4580031695721077</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0.6991150442477876</v>
+        <v>0.6585365853658537</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -777,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0.5159235668789809</v>
+        <v>0.5168195718654435</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -785,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>0.3770642201834862</v>
+        <v>0.3777173913043478</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>0.388086642599278</v>
+        <v>0.393526405451448</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.5501519756838906</v>
+        <v>0.5539358600583091</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.521594684385382</v>
+        <v>0.5278688524590164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -859,7 +859,7 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.6510791366906474</v>
+        <v>0.6537102473498233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -867,7 +867,7 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.5462962962962963</v>
+        <v>0.5481927710843374</v>
       </c>
     </row>
   </sheetData>
@@ -920,25 +920,25 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.3715509402343605</v>
+        <v>0.3764825793549341</v>
       </c>
       <c r="D2">
-        <v>0.09806150577599362</v>
+        <v>0.09914367315783958</v>
       </c>
       <c r="E2">
-        <v>0.2560669456066946</v>
+        <v>0.2600979192166463</v>
       </c>
       <c r="F2">
-        <v>0.3078817670765203</v>
+        <v>0.3111461981812499</v>
       </c>
       <c r="G2">
-        <v>0.3831649224106821</v>
+        <v>0.3911453657682118</v>
       </c>
       <c r="H2">
-        <v>0.4468340955685223</v>
+        <v>0.456481746941896</v>
       </c>
       <c r="I2">
-        <v>0.4638069705093834</v>
+        <v>0.4635416666666667</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -949,25 +949,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.5377597308266322</v>
+        <v>0.5384781696432938</v>
       </c>
       <c r="D3">
-        <v>0.1111652711700811</v>
+        <v>0.1099566009749393</v>
       </c>
       <c r="E3">
-        <v>0.3925339366515837</v>
+        <v>0.3966666666666667</v>
       </c>
       <c r="F3">
-        <v>0.4858573408194369</v>
+        <v>0.4843360029800707</v>
       </c>
       <c r="G3">
-        <v>0.5044642857142857</v>
+        <v>0.5043859649122807</v>
       </c>
       <c r="H3">
-        <v>0.595529878618114</v>
+        <v>0.5957966764418376</v>
       </c>
       <c r="I3">
-        <v>0.7045454545454546</v>
+        <v>0.708029197080292</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.567458597468439</v>
+        <v>0.5673577333927262</v>
       </c>
       <c r="D4">
-        <v>0.09258090002303407</v>
+        <v>0.08849665223541958</v>
       </c>
       <c r="E4">
-        <v>0.3815789473684211</v>
+        <v>0.3898840885142255</v>
       </c>
       <c r="F4">
-        <v>0.5372844627792713</v>
+        <v>0.5386861122748219</v>
       </c>
       <c r="G4">
-        <v>0.5582246376811595</v>
+        <v>0.5626577881699114</v>
       </c>
       <c r="H4">
-        <v>0.599548532731377</v>
+        <v>0.5934183171025276</v>
       </c>
       <c r="I4">
-        <v>0.7076923076923077</v>
+        <v>0.7092198581560284</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1007,25 +1007,25 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.4878116653140035</v>
+        <v>0.4824665336650955</v>
       </c>
       <c r="D5">
-        <v>0.1171495345436012</v>
+        <v>0.101707153746936</v>
       </c>
       <c r="E5">
-        <v>0.3770642201834862</v>
+        <v>0.3777173913043478</v>
       </c>
       <c r="F5">
-        <v>0.4052476742571508</v>
+        <v>0.4096455964816129</v>
       </c>
       <c r="G5">
-        <v>0.4733402589872439</v>
+        <v>0.4740996240017401</v>
       </c>
       <c r="H5">
-        <v>0.5094301123451653</v>
+        <v>0.5101636985069258</v>
       </c>
       <c r="I5">
-        <v>0.6991150442477876</v>
+        <v>0.6585365853658537</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1036,22 +1036,22 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.5501519756838906</v>
+        <v>0.5539358600583091</v>
       </c>
       <c r="E6">
-        <v>0.5501519756838906</v>
+        <v>0.5539358600583091</v>
       </c>
       <c r="F6">
-        <v>0.5501519756838906</v>
+        <v>0.5539358600583091</v>
       </c>
       <c r="G6">
-        <v>0.5501519756838906</v>
+        <v>0.5539358600583091</v>
       </c>
       <c r="H6">
-        <v>0.5501519756838906</v>
+        <v>0.5539358600583091</v>
       </c>
       <c r="I6">
-        <v>0.5501519756838906</v>
+        <v>0.5539358600583091</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1062,25 +1062,25 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.5729900391241086</v>
+        <v>0.5765906236310591</v>
       </c>
       <c r="D7">
-        <v>0.0687457109703338</v>
+        <v>0.06755621872903346</v>
       </c>
       <c r="E7">
-        <v>0.521594684385382</v>
+        <v>0.5278688524590164</v>
       </c>
       <c r="F7">
-        <v>0.5339454903408392</v>
+        <v>0.5380308117716769</v>
       </c>
       <c r="G7">
-        <v>0.5462962962962963</v>
+        <v>0.5481927710843374</v>
       </c>
       <c r="H7">
-        <v>0.5986877164934719</v>
+        <v>0.6009515092170803</v>
       </c>
       <c r="I7">
-        <v>0.6510791366906474</v>
+        <v>0.6537102473498233</v>
       </c>
     </row>
   </sheetData>

--- a/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_lexical_diversity.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_lexical_diversity.xlsx
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.4635416666666667</v>
+        <v>0.413716814159292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.3281622911694511</v>
+        <v>0.2957600827300931</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.4541284403669725</v>
+        <v>0.4083969465648855</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.2600979192166463</v>
+        <v>0.236078144969874</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.708029197080292</v>
+        <v>0.6235294117647059</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5249266862170088</v>
+        <v>0.4816753926701571</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -591,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5043859649122807</v>
+        <v>0.4401408450704226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -599,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.489010989010989</v>
+        <v>0.4304093567251462</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.6020942408376964</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4796610169491525</v>
+        <v>0.4396423248882265</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -623,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3966666666666667</v>
+        <v>0.3581213307240704</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.5598705501618123</v>
+        <v>0.4502487562189055</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -660,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.3898840885142255</v>
+        <v>0.3407275953859805</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.5032051282051282</v>
+        <v>0.4699140401146132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -676,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.6779661016949152</v>
+        <v>0.6439393939393939</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.5841995841995842</v>
+        <v>0.5223613595706619</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.533724340175953</v>
+        <v>0.4884318766066838</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.7092198581560284</v>
+        <v>0.6686746987951807</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -708,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.5654450261780105</v>
+        <v>0.5034013605442177</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.5964912280701754</v>
+        <v>0.5612244897959183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0.5535714285714286</v>
+        <v>0.5284810126582279</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>0.4901960784313725</v>
+        <v>0.4573304157549234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -761,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>0.4580031695721077</v>
+        <v>0.4089012517385257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0.6585365853658537</v>
+        <v>0.6197183098591549</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -777,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0.5168195718654435</v>
+        <v>0.4783783783783784</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -785,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>0.3777173913043478</v>
+        <v>0.3429027113237639</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>0.393526405451448</v>
+        <v>0.3607784431137724</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.5539358600583091</v>
+        <v>0.5103626943005182</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.5278688524590164</v>
+        <v>0.4774011299435028</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -859,7 +859,7 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.6537102473498233</v>
+        <v>0.564327485380117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -867,7 +867,7 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.5481927710843374</v>
+        <v>0.5150684931506849</v>
       </c>
     </row>
   </sheetData>
@@ -920,25 +920,25 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.3764825793549341</v>
+        <v>0.3384879971060362</v>
       </c>
       <c r="D2">
-        <v>0.09914367315783958</v>
+        <v>0.0872927805551347</v>
       </c>
       <c r="E2">
-        <v>0.2600979192166463</v>
+        <v>0.236078144969874</v>
       </c>
       <c r="F2">
-        <v>0.3111461981812499</v>
+        <v>0.2808395982900383</v>
       </c>
       <c r="G2">
-        <v>0.3911453657682118</v>
+        <v>0.3520785146474893</v>
       </c>
       <c r="H2">
-        <v>0.456481746941896</v>
+        <v>0.4097269134634871</v>
       </c>
       <c r="I2">
-        <v>0.4635416666666667</v>
+        <v>0.413716814159292</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -949,25 +949,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.5384781696432938</v>
+        <v>0.4822304146686322</v>
       </c>
       <c r="D3">
-        <v>0.1099566009749393</v>
+        <v>0.09661505703711465</v>
       </c>
       <c r="E3">
-        <v>0.3966666666666667</v>
+        <v>0.3581213307240704</v>
       </c>
       <c r="F3">
-        <v>0.4843360029800707</v>
+        <v>0.4350258408066864</v>
       </c>
       <c r="G3">
-        <v>0.5043859649122807</v>
+        <v>0.4401408450704226</v>
       </c>
       <c r="H3">
-        <v>0.5957966764418376</v>
+        <v>0.5418848167539267</v>
       </c>
       <c r="I3">
-        <v>0.708029197080292</v>
+        <v>0.6235294117647059</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.5673577333927262</v>
+        <v>0.5177404583629783</v>
       </c>
       <c r="D4">
-        <v>0.08849665223541958</v>
+        <v>0.0942664910362426</v>
       </c>
       <c r="E4">
-        <v>0.3898840885142255</v>
+        <v>0.3407275953859805</v>
       </c>
       <c r="F4">
-        <v>0.5386861122748219</v>
+        <v>0.4745434992376308</v>
       </c>
       <c r="G4">
-        <v>0.5626577881699114</v>
+        <v>0.5128813600574398</v>
       </c>
       <c r="H4">
-        <v>0.5934183171025276</v>
+        <v>0.5530386205114957</v>
       </c>
       <c r="I4">
-        <v>0.7092198581560284</v>
+        <v>0.6686746987951807</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1007,25 +1007,25 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.4824665336650955</v>
+        <v>0.4446682516947532</v>
       </c>
       <c r="D5">
-        <v>0.101707153746936</v>
+        <v>0.1006103666425036</v>
       </c>
       <c r="E5">
-        <v>0.3777173913043478</v>
+        <v>0.3429027113237639</v>
       </c>
       <c r="F5">
-        <v>0.4096455964816129</v>
+        <v>0.3728091452699608</v>
       </c>
       <c r="G5">
-        <v>0.4740996240017401</v>
+        <v>0.4331158337467246</v>
       </c>
       <c r="H5">
-        <v>0.5101636985069258</v>
+        <v>0.4731163877225146</v>
       </c>
       <c r="I5">
-        <v>0.6585365853658537</v>
+        <v>0.6197183098591549</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1036,22 +1036,22 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.5539358600583091</v>
+        <v>0.5103626943005182</v>
       </c>
       <c r="E6">
-        <v>0.5539358600583091</v>
+        <v>0.5103626943005182</v>
       </c>
       <c r="F6">
-        <v>0.5539358600583091</v>
+        <v>0.5103626943005182</v>
       </c>
       <c r="G6">
-        <v>0.5539358600583091</v>
+        <v>0.5103626943005182</v>
       </c>
       <c r="H6">
-        <v>0.5539358600583091</v>
+        <v>0.5103626943005182</v>
       </c>
       <c r="I6">
-        <v>0.5539358600583091</v>
+        <v>0.5103626943005182</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1062,25 +1062,25 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.5765906236310591</v>
+        <v>0.5189323694914348</v>
       </c>
       <c r="D7">
-        <v>0.06755621872903346</v>
+        <v>0.04359179937391439</v>
       </c>
       <c r="E7">
-        <v>0.5278688524590164</v>
+        <v>0.4774011299435028</v>
       </c>
       <c r="F7">
-        <v>0.5380308117716769</v>
+        <v>0.4962348115470939</v>
       </c>
       <c r="G7">
-        <v>0.5481927710843374</v>
+        <v>0.5150684931506849</v>
       </c>
       <c r="H7">
-        <v>0.6009515092170803</v>
+        <v>0.539697989265401</v>
       </c>
       <c r="I7">
-        <v>0.6537102473498233</v>
+        <v>0.564327485380117</v>
       </c>
     </row>
   </sheetData>
